--- a/projects/Kofskey1972_one_stage/experimental_data_kofskey1972_1stage_raw.xlsx
+++ b/projects/Kofskey1972_one_stage/experimental_data_kofskey1972_1stage_raw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lasseba\Python Scripts\Mean line model\meanline-axial\projects\Kofskey1972_one_stage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3AF062-8770-4FB2-A256-0DDF82315FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7E342A-9456-475F-AFFE-05E0ED908AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mass flow rate" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,25 @@
     <sheet name="Total-to-static efficiency" sheetId="3" r:id="rId3"/>
     <sheet name="alpha_out" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>PR</t>
   </si>
@@ -41,6 +54,9 @@
   </si>
   <si>
     <t>alpha_out</t>
+  </si>
+  <si>
+    <t>cos_angle</t>
   </si>
 </sst>
 </file>
@@ -69,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -92,13 +108,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3252,15 +3282,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3270,8 +3300,11 @@
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.80677651964901</v>
       </c>
@@ -3281,8 +3314,12 @@
       <c r="C2">
         <v>-11.514696938982301</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <f>COS(C2*PI()/180)</f>
+        <v>0.97987353251924347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.8122440705453</v>
       </c>
@@ -3292,8 +3329,12 @@
       <c r="C3">
         <v>-35.756914077205899</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <f t="shared" ref="D3:D60" si="0">COS(C3*PI()/180)</f>
+        <v>0.81150347265548328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.8275694303669101</v>
       </c>
@@ -3303,8 +3344,12 @@
       <c r="C4">
         <v>-35.5290608438794</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.81382087680790838</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1.84700703715502</v>
       </c>
@@ -3314,8 +3359,12 @@
       <c r="C5">
         <v>-48.407112449682899</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.6638333791239035</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1.85611189945266</v>
       </c>
@@ -3325,8 +3374,12 @@
       <c r="C6">
         <v>-48.861313023080697</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.6578839133017097</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1.8900060814919899</v>
       </c>
@@ -3336,8 +3389,12 @@
       <c r="C7">
         <v>-7.1933624858822496</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.99212921407052612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.9150734122961901</v>
       </c>
@@ -3347,8 +3404,12 @@
       <c r="C8">
         <v>-23.253019026381999</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.91877040904965424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1.9161391213692001</v>
       </c>
@@ -3358,8 +3419,12 @@
       <c r="C9">
         <v>-16.283281688917199</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.95988714673392606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1.9272479800758699</v>
       </c>
@@ -3369,8 +3434,12 @@
       <c r="C10">
         <v>-23.631345747299498</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.9161435668880723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1.94380122209029</v>
       </c>
@@ -3380,8 +3449,12 @@
       <c r="C11">
         <v>-55.373142972980702</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.56822952251803294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.9555356056876401</v>
       </c>
@@ -3391,8 +3464,12 @@
       <c r="C12">
         <v>-38.6302742463293</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.78119071454389322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.95561669224754</v>
       </c>
@@ -3402,8 +3479,12 @@
       <c r="C13">
         <v>-38.0999681445657</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.78693536502218708</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2.00890214589788</v>
       </c>
@@ -3413,8 +3494,12 @@
       <c r="C14">
         <v>-49.613101271321398</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.64794575052732928</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2.0875097738264099</v>
       </c>
@@ -3424,8 +3509,12 @@
       <c r="C15">
         <v>-55.5192146187483</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.56612982747108131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2.1089629608178102</v>
       </c>
@@ -3435,8 +3524,12 @@
       <c r="C16">
         <v>-15.2153716949986</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.9649461178765808</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2.1353624279632699</v>
       </c>
@@ -3446,8 +3539,12 @@
       <c r="C17">
         <v>-22.562856563667399</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.92345915225102537</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2.1494019866207101</v>
       </c>
@@ -3457,8 +3554,12 @@
       <c r="C18">
         <v>-30.744142944021299</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.85945867390136566</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2.1936636645333101</v>
       </c>
@@ -3468,8 +3569,12 @@
       <c r="C19">
         <v>-41.272769395615498</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.75157772348283103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2.2596102053227498</v>
       </c>
@@ -3479,8 +3584,12 @@
       <c r="C20">
         <v>-49.982392632706798</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.64302298979234618</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2.29765138571139</v>
       </c>
@@ -3490,8 +3599,12 @@
       <c r="C21">
         <v>-21.193072891025398</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.93236751512275817</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2.29775563985983</v>
       </c>
@@ -3501,8 +3614,12 @@
       <c r="C22">
         <v>-20.511250760186499</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.93660340348559246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2.3291477223364501</v>
       </c>
@@ -3512,8 +3629,12 @@
       <c r="C23">
         <v>-35.207031363122901</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.81707415215610935</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2.33348006139411</v>
       </c>
@@ -3523,8 +3644,12 @@
       <c r="C24">
         <v>-26.8735339260374</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.89200642315634115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2.3749847962700099</v>
       </c>
@@ -3534,8 +3659,12 @@
       <c r="C25">
         <v>-55.432567837595201</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.56737576946506241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2.3953027714227799</v>
       </c>
@@ -3545,8 +3674,12 @@
       <c r="C26">
         <v>-42.553010338536303</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0.73665196194216032</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2.5041672699892801</v>
       </c>
@@ -3556,8 +3689,12 @@
       <c r="C27">
         <v>-50.579189713590601</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0.63501113435747725</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2.53902290695317</v>
       </c>
@@ -3567,8 +3704,12 @@
       <c r="C28">
         <v>-22.623323969766201</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0.92305370165707257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2.5529813790507001</v>
       </c>
@@ -3578,8 +3719,12 @@
       <c r="C29">
         <v>-31.334916451883799</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0.85414207288064825</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2.5918681764211802</v>
       </c>
@@ -3589,8 +3734,12 @@
       <c r="C30">
         <v>-37.0152616489531</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0.7984751786426425</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2.65325070226752</v>
       </c>
@@ -3600,8 +3749,12 @@
       <c r="C31">
         <v>-55.573542613883099</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0.56534795459917886</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2.6580927282731399</v>
       </c>
@@ -3611,8 +3764,12 @@
       <c r="C32">
         <v>-43.906692537140501</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0.7204701127104669</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2.7556746112188999</v>
       </c>
@@ -3622,8 +3779,12 @@
       <c r="C33">
         <v>-25.7211780718774</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0.90091666762862455</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2.78544496249746</v>
       </c>
@@ -3633,8 +3794,12 @@
       <c r="C34">
         <v>-51.023080710086496</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0.62900727888144004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2.8061915380382798</v>
       </c>
@@ -3644,8 +3809,12 @@
       <c r="C35">
         <v>-35.340476673134198</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0.81572915823619796</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2.84544901682546</v>
       </c>
@@ -3655,8 +3824,12 @@
       <c r="C36">
         <v>-38.596565404998401</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0.78155786947160388</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2.9332425936115301</v>
       </c>
@@ -3666,8 +3839,12 @@
       <c r="C37">
         <v>-44.426573224059503</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0.71414810576489418</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3.00193449364339</v>
       </c>
@@ -3677,8 +3854,12 @@
       <c r="C38">
         <v>-55.181547015725002</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0.57097800177392388</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3.0698039442819498</v>
       </c>
@@ -3688,8 +3869,12 @@
       <c r="C39">
         <v>-51.315339839564402</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0.62503368874476894</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3.0881295068199499</v>
       </c>
@@ -3699,8 +3884,12 @@
       <c r="C40">
         <v>-51.466160840983399</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0.62297674012759363</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3.1806145202861198</v>
       </c>
@@ -3710,8 +3899,12 @@
       <c r="C41">
         <v>-26.6141727722915</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0.89404345110706773</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3.24015522284324</v>
       </c>
@@ -3721,8 +3914,12 @@
       <c r="C42">
         <v>-37.217978048709803</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0.79634017003758162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3.26114505806376</v>
       </c>
@@ -3732,8 +3929,12 @@
       <c r="C43">
         <v>-39.944455706466599</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0.76666722116714126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3.36586255828096</v>
       </c>
@@ -3743,8 +3944,12 @@
       <c r="C44">
         <v>-55.0920042860038</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0.57226032132742211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>3.4316005907734999</v>
       </c>
@@ -3754,8 +3959,12 @@
       <c r="C45">
         <v>-45.165271784773097</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>0.7050641667221943</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3.6539746894095102</v>
       </c>
@@ -3765,8 +3974,12 @@
       <c r="C46">
         <v>-50.838666705279302</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0.63150617872049586</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3.6757058874634301</v>
       </c>
@@ -3776,8 +3989,12 @@
       <c r="C47">
         <v>-28.7166314326257</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>0.87700673071452884</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3.6784280791173098</v>
       </c>
@@ -3787,8 +4004,12 @@
       <c r="C48">
         <v>-50.913498016275199</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>0.63049296517350051</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>3.7509542150531399</v>
       </c>
@@ -3798,8 +4019,12 @@
       <c r="C49">
         <v>-36.592568995974602</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>0.80289479611433734</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3.7540818395065298</v>
       </c>
@@ -3809,8 +4034,12 @@
       <c r="C50">
         <v>-56.1379050708059</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>0.55719587715776941</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3.7693261127682298</v>
       </c>
@@ -3820,8 +4049,12 @@
       <c r="C51">
         <v>-56.440357939242901</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>0.55280471984611557</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3.83623410848223</v>
       </c>
@@ -3831,8 +4064,12 @@
       <c r="C52">
         <v>-38.862065969708297</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>0.77865873576955702</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>3.9944108192638401</v>
       </c>
@@ -3842,8 +4079,12 @@
       <c r="C53">
         <v>-44.386377457936298</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>0.71463901014152953</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>4.0882048014827204</v>
       </c>
@@ -3853,8 +4094,12 @@
       <c r="C54">
         <v>-50.973733746488598</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>0.62967659395653452</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>4.1702759838985202</v>
       </c>
@@ -3864,8 +4109,12 @@
       <c r="C55">
         <v>-54.228200747154702</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>0.58455840187062502</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>4.22304016680663</v>
       </c>
@@ -3875,8 +4124,12 @@
       <c r="C56">
         <v>-29.150444528105101</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>0.87334370353505986</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>4.23835394283397</v>
       </c>
@@ -3886,8 +4139,12 @@
       <c r="C57">
         <v>-28.9983493093162</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>0.87463367413545334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>4.30156670817526</v>
       </c>
@@ -3897,8 +4154,12 @@
       <c r="C58">
         <v>-35.5868639772957</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>0.81323420117405587</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>4.3836263067967902</v>
       </c>
@@ -3908,8 +4169,12 @@
       <c r="C59">
         <v>-38.917088992499401</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>0.77805581816334901</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>4.4050331586110998</v>
       </c>
@@ -3918,6 +4183,10 @@
       </c>
       <c r="C60">
         <v>-38.916278126900401</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>0.77806470847559994</v>
       </c>
     </row>
   </sheetData>
